--- a/Doc/账号经销商模板.xlsx
+++ b/Doc/账号经销商模板.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="经销商" sheetId="1" r:id="rId1"/>
+    <sheet name="Shop" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,32 +16,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
-  <si>
-    <t>账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>经销商代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EAQD10</t>
-  </si>
-  <si>
-    <t>EBBI10</t>
-  </si>
-  <si>
-    <t>EBZR10</t>
-  </si>
-  <si>
-    <t>ECOD10</t>
-  </si>
-  <si>
-    <t>ECSR10</t>
-  </si>
-  <si>
-    <t>E1</t>
+    <t>经销商名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后小区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,63 +378,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
